--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T09:32:48+00:00</t>
+    <t>2024-06-19T12:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:05:11+00:00</t>
+    <t>2024-06-25T16:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T06:41:39+00:00</t>
+    <t>2024-07-08T06:24:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7507" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7508" uniqueCount="850">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,20 +670,23 @@
     <t>MOPED Extension für die Rechnungsnummer der Krankenanstalt bzw. des Landesgesundheitsfonds</t>
   </si>
   <si>
-    <t>ClaimResponse.extension:Comment</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-comment}
+    <t>ClaimResponse.extension:Note</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {note}
 </t>
   </si>
   <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>"Kommentar:" Dieses Datenfeld ist für generelle oder spezifische Anmerkungen zum jeweiligen Krankenhausaufenthalt vorgesehen.</t>
+    <t>A recorded sex or gender property for the individual</t>
+  </si>
+  <si>
+    <t>Additional notes that apply to this resource or element.</t>
+  </si>
+  <si>
+    <t>This extension SHALL NOT be used if the resource already has standard 'note' element (or equivalent) of type Annotation on the same element</t>
   </si>
   <si>
     <t>ClaimResponse.extension:LeistungskomponenteLeistungspunkte</t>
@@ -5578,7 +5581,9 @@
       <c r="M24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -5653,13 +5658,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>19</v>
@@ -5681,13 +5686,13 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5764,13 +5769,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>19</v>
@@ -5792,13 +5797,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5875,13 +5880,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>19</v>
@@ -5903,13 +5908,13 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5986,13 +5991,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>19</v>
@@ -6014,13 +6019,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -6097,13 +6102,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>19</v>
@@ -6125,13 +6130,13 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6208,13 +6213,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>19</v>
@@ -6236,13 +6241,13 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -6319,13 +6324,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>19</v>
@@ -6347,13 +6352,13 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6430,13 +6435,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>19</v>
@@ -6458,13 +6463,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6541,14 +6546,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6570,16 +6575,16 @@
         <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -6628,7 +6633,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6654,10 +6659,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6680,17 +6685,17 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -6739,7 +6744,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6754,10 +6759,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
@@ -6765,10 +6770,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6791,17 +6796,17 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6850,7 +6855,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6876,10 +6881,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6905,16 +6910,16 @@
         <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6942,10 +6947,10 @@
         <v>110</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>19</v>
@@ -6963,7 +6968,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -6978,10 +6983,10 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -6989,10 +6994,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7015,19 +7020,19 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -7052,13 +7057,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -7076,7 +7081,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -7094,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
@@ -7102,10 +7107,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7128,19 +7133,19 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -7165,31 +7170,31 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -7207,7 +7212,7 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -7215,10 +7220,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7244,14 +7249,14 @@
         <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -7279,10 +7284,10 @@
         <v>110</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>19</v>
@@ -7300,7 +7305,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -7318,7 +7323,7 @@
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
@@ -7326,10 +7331,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7352,17 +7357,17 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -7411,7 +7416,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
@@ -7429,7 +7434,7 @@
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
@@ -7437,10 +7442,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7463,17 +7468,17 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -7522,7 +7527,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -7537,10 +7542,10 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
@@ -7548,10 +7553,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7574,17 +7579,17 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -7633,7 +7638,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7648,7 +7653,7 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>19</v>
@@ -7659,10 +7664,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7685,16 +7690,16 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7744,7 +7749,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7762,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
@@ -7770,10 +7775,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7796,13 +7801,13 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7853,7 +7858,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7868,10 +7873,10 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
@@ -7879,10 +7884,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7908,16 +7913,16 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7945,10 +7950,10 @@
         <v>110</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -7966,7 +7971,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -7992,10 +7997,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8018,19 +8023,19 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -8055,13 +8060,13 @@
         <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>19</v>
@@ -8079,7 +8084,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -8105,10 +8110,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8131,17 +8136,17 @@
         <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -8190,7 +8195,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -8205,7 +8210,7 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>19</v>
@@ -8216,10 +8221,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8242,19 +8247,19 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -8303,7 +8308,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -8329,10 +8334,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8355,17 +8360,17 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -8414,7 +8419,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8440,10 +8445,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8466,13 +8471,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8523,7 +8528,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8549,10 +8554,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8575,13 +8580,13 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8632,7 +8637,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8641,7 +8646,7 @@
         <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>19</v>
@@ -8653,19 +8658,19 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8687,13 +8692,13 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8743,7 +8748,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8764,19 +8769,19 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8798,16 +8803,16 @@
         <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8856,7 +8861,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8882,10 +8887,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8908,13 +8913,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8941,11 +8946,11 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8963,7 +8968,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
@@ -8989,10 +8994,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9015,13 +9020,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9072,7 +9077,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -9098,10 +9103,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9124,17 +9129,17 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -9159,13 +9164,13 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>19</v>
@@ -9183,7 +9188,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -9209,10 +9214,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9235,19 +9240,19 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -9294,7 +9299,7 @@
         <v>137</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9320,13 +9325,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>19</v>
@@ -9348,19 +9353,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -9409,7 +9414,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9435,13 +9440,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>19</v>
@@ -9463,19 +9468,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -9524,7 +9529,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9550,10 +9555,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9576,19 +9581,19 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9617,7 +9622,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -9635,7 +9640,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9661,10 +9666,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9687,17 +9692,17 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9746,7 +9751,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9772,10 +9777,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9798,13 +9803,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9855,7 +9860,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9864,7 +9869,7 @@
         <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>19</v>
@@ -9876,19 +9881,19 @@
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9910,13 +9915,13 @@
         <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9966,7 +9971,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9987,19 +9992,19 @@
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10021,16 +10026,16 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -10079,7 +10084,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -10105,10 +10110,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10131,17 +10136,17 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -10190,7 +10195,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>86</v>
@@ -10216,10 +10221,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10242,17 +10247,17 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -10301,7 +10306,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10327,10 +10332,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10353,17 +10358,17 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -10412,7 +10417,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10438,10 +10443,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10464,13 +10469,13 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10521,7 +10526,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10547,10 +10552,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10573,13 +10578,13 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10630,7 +10635,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10639,7 +10644,7 @@
         <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>19</v>
@@ -10651,19 +10656,19 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10685,13 +10690,13 @@
         <v>133</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10741,7 +10746,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10762,19 +10767,19 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10796,16 +10801,16 @@
         <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
@@ -10854,7 +10859,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10880,10 +10885,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10906,19 +10911,19 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10943,11 +10948,11 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -10965,7 +10970,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10991,10 +10996,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11017,17 +11022,17 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
@@ -11052,11 +11057,11 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -11074,7 +11079,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -11100,10 +11105,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11126,19 +11131,19 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -11187,7 +11192,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -11213,10 +11218,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11239,17 +11244,17 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -11298,7 +11303,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11324,10 +11329,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11350,17 +11355,17 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11409,7 +11414,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11435,10 +11440,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11461,13 +11466,13 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11518,7 +11523,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11527,7 +11532,7 @@
         <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>19</v>
@@ -11539,19 +11544,19 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11573,13 +11578,13 @@
         <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11629,7 +11634,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11650,19 +11655,19 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11684,16 +11689,16 @@
         <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
@@ -11742,7 +11747,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11768,10 +11773,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11794,19 +11799,19 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -11831,13 +11836,13 @@
         <v>19</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>19</v>
@@ -11855,7 +11860,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>86</v>
@@ -11881,10 +11886,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11907,19 +11912,19 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -11944,13 +11949,13 @@
         <v>19</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>19</v>
@@ -11968,7 +11973,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11994,10 +11999,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12020,19 +12025,19 @@
         <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -12081,7 +12086,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -12107,10 +12112,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12133,19 +12138,19 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>19</v>
@@ -12194,7 +12199,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -12220,10 +12225,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12246,17 +12251,17 @@
         <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>19</v>
@@ -12305,7 +12310,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12331,10 +12336,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12357,13 +12362,13 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12414,7 +12419,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12423,7 +12428,7 @@
         <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>19</v>
@@ -12435,19 +12440,19 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12469,13 +12474,13 @@
         <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12525,7 +12530,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12546,19 +12551,19 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12580,16 +12585,16 @@
         <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -12638,7 +12643,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12664,10 +12669,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12690,17 +12695,17 @@
         <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -12749,7 +12754,7 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -12775,10 +12780,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12801,17 +12806,17 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>19</v>
@@ -12860,7 +12865,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12886,10 +12891,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12912,17 +12917,17 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -12971,7 +12976,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12997,10 +13002,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13026,10 +13031,10 @@
         <v>78</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13080,7 +13085,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -13106,10 +13111,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13135,10 +13140,10 @@
         <v>78</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13189,7 +13194,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13215,10 +13220,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13241,17 +13246,17 @@
         <v>19</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>19</v>
@@ -13300,7 +13305,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13326,10 +13331,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13352,13 +13357,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13409,7 +13414,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13418,7 +13423,7 @@
         <v>86</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>19</v>
@@ -13430,19 +13435,19 @@
         <v>19</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13464,13 +13469,13 @@
         <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13520,7 +13525,7 @@
         <v>19</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13541,19 +13546,19 @@
         <v>19</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13575,16 +13580,16 @@
         <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>19</v>
@@ -13633,7 +13638,7 @@
         <v>19</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13659,10 +13664,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13685,17 +13690,17 @@
         <v>19</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>19</v>
@@ -13744,7 +13749,7 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>86</v>
@@ -13770,10 +13775,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13796,17 +13801,17 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>19</v>
@@ -13855,7 +13860,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13881,10 +13886,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13907,17 +13912,17 @@
         <v>19</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>19</v>
@@ -13966,7 +13971,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13992,10 +13997,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14021,10 +14026,10 @@
         <v>78</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14075,7 +14080,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
@@ -14101,10 +14106,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14130,10 +14135,10 @@
         <v>78</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14184,7 +14189,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14210,10 +14215,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14236,17 +14241,17 @@
         <v>19</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>19</v>
@@ -14295,7 +14300,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14321,10 +14326,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14347,13 +14352,13 @@
         <v>19</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14404,7 +14409,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14413,7 +14418,7 @@
         <v>86</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>19</v>
@@ -14425,19 +14430,19 @@
         <v>19</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14459,13 +14464,13 @@
         <v>133</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14515,7 +14520,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14536,19 +14541,19 @@
         <v>19</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14570,16 +14575,16 @@
         <v>133</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>19</v>
@@ -14628,7 +14633,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>76</v>
@@ -14654,10 +14659,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14680,17 +14685,17 @@
         <v>19</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>19</v>
@@ -14739,7 +14744,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
@@ -14765,10 +14770,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14791,17 +14796,17 @@
         <v>19</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -14850,7 +14855,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
@@ -14876,10 +14881,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14902,17 +14907,17 @@
         <v>19</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>19</v>
@@ -14961,7 +14966,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14987,10 +14992,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15013,17 +15018,17 @@
         <v>19</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -15072,7 +15077,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -15098,10 +15103,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15124,17 +15129,17 @@
         <v>19</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>19</v>
@@ -15183,7 +15188,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -15201,7 +15206,7 @@
         <v>19</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>19</v>
@@ -15209,10 +15214,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15235,17 +15240,17 @@
         <v>19</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>19</v>
@@ -15270,13 +15275,13 @@
         <v>19</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>19</v>
@@ -15294,7 +15299,7 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15320,10 +15325,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15346,19 +15351,19 @@
         <v>19</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>19</v>
@@ -15383,13 +15388,13 @@
         <v>19</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>19</v>
@@ -15407,7 +15412,7 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15433,14 +15438,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15459,13 +15464,13 @@
         <v>19</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15492,11 +15497,11 @@
         <v>19</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>19</v>
@@ -15514,7 +15519,7 @@
         <v>19</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -15540,10 +15545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15566,17 +15571,17 @@
         <v>19</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>19</v>
@@ -15625,7 +15630,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -15651,10 +15656,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15677,19 +15682,19 @@
         <v>19</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>19</v>
@@ -15714,13 +15719,13 @@
         <v>19</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>19</v>
@@ -15738,7 +15743,7 @@
         <v>19</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -15759,15 +15764,15 @@
         <v>19</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15790,19 +15795,19 @@
         <v>19</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>19</v>
@@ -15827,13 +15832,13 @@
         <v>19</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>19</v>
@@ -15851,7 +15856,7 @@
         <v>19</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
@@ -15872,15 +15877,15 @@
         <v>19</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15903,17 +15908,17 @@
         <v>19</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>19</v>
@@ -15962,7 +15967,7 @@
         <v>19</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
@@ -15980,18 +15985,18 @@
         <v>19</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16014,17 +16019,17 @@
         <v>19</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>19</v>
@@ -16049,13 +16054,13 @@
         <v>19</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>19</v>
@@ -16073,7 +16078,7 @@
         <v>19</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -16091,18 +16096,18 @@
         <v>19</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16125,17 +16130,17 @@
         <v>19</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>19</v>
@@ -16184,7 +16189,7 @@
         <v>19</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>76</v>
@@ -16205,15 +16210,15 @@
         <v>19</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16236,17 +16241,17 @@
         <v>19</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>19</v>
@@ -16295,7 +16300,7 @@
         <v>19</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>76</v>
@@ -16321,10 +16326,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16347,19 +16352,19 @@
         <v>19</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>19</v>
@@ -16408,7 +16413,7 @@
         <v>19</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>76</v>
@@ -16434,10 +16439,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16460,17 +16465,17 @@
         <v>19</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>19</v>
@@ -16519,7 +16524,7 @@
         <v>19</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>76</v>
@@ -16545,10 +16550,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16571,19 +16576,19 @@
         <v>19</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>19</v>
@@ -16632,7 +16637,7 @@
         <v>19</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -16653,15 +16658,15 @@
         <v>19</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16684,13 +16689,13 @@
         <v>19</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16741,7 +16746,7 @@
         <v>19</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
@@ -16767,10 +16772,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16793,13 +16798,13 @@
         <v>19</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16850,7 +16855,7 @@
         <v>19</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -16859,7 +16864,7 @@
         <v>86</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>19</v>
@@ -16871,19 +16876,19 @@
         <v>19</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -16905,13 +16910,13 @@
         <v>133</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -16961,7 +16966,7 @@
         <v>19</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -16982,19 +16987,19 @@
         <v>19</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17016,16 +17021,16 @@
         <v>133</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>19</v>
@@ -17074,7 +17079,7 @@
         <v>19</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>76</v>
@@ -17100,10 +17105,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17126,19 +17131,19 @@
         <v>19</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>19</v>
@@ -17163,11 +17168,11 @@
         <v>19</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y128" s="2"/>
       <c r="Z128" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>19</v>
@@ -17185,7 +17190,7 @@
         <v>19</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>86</v>
@@ -17211,10 +17216,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17237,17 +17242,17 @@
         <v>19</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>19</v>
@@ -17272,11 +17277,11 @@
         <v>19</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>19</v>
@@ -17294,7 +17299,7 @@
         <v>19</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>76</v>
@@ -17320,10 +17325,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17346,17 +17351,17 @@
         <v>19</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>19</v>
@@ -17405,7 +17410,7 @@
         <v>19</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>76</v>
@@ -17431,10 +17436,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17460,10 +17465,10 @@
         <v>78</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17514,7 +17519,7 @@
         <v>19</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>76</v>
@@ -17540,10 +17545,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17569,10 +17574,10 @@
         <v>78</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17623,7 +17628,7 @@
         <v>19</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>76</v>
@@ -17649,10 +17654,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17675,13 +17680,13 @@
         <v>19</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -17732,7 +17737,7 @@
         <v>19</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>76</v>
@@ -17758,10 +17763,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17784,13 +17789,13 @@
         <v>19</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -17841,7 +17846,7 @@
         <v>19</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>76</v>
@@ -17850,7 +17855,7 @@
         <v>86</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>19</v>
@@ -17862,19 +17867,19 @@
         <v>19</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -17896,13 +17901,13 @@
         <v>133</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -17952,7 +17957,7 @@
         <v>19</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>76</v>
@@ -17973,19 +17978,19 @@
         <v>19</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -18007,16 +18012,16 @@
         <v>133</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>19</v>
@@ -18065,7 +18070,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>76</v>
@@ -18091,10 +18096,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18117,17 +18122,17 @@
         <v>19</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>19</v>
@@ -18176,7 +18181,7 @@
         <v>19</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>76</v>
@@ -18202,10 +18207,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18228,17 +18233,17 @@
         <v>19</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>19</v>
@@ -18263,13 +18268,13 @@
         <v>19</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>19</v>
@@ -18287,7 +18292,7 @@
         <v>19</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>76</v>
@@ -18313,10 +18318,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18339,19 +18344,19 @@
         <v>19</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>19</v>
@@ -18376,13 +18381,13 @@
         <v>19</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>19</v>
@@ -18400,7 +18405,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>76</v>
@@ -18426,14 +18431,14 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -18452,13 +18457,13 @@
         <v>19</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -18485,11 +18490,11 @@
         <v>19</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>19</v>
@@ -18507,7 +18512,7 @@
         <v>19</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>76</v>
@@ -18533,10 +18538,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18559,19 +18564,19 @@
         <v>19</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>19</v>
@@ -18596,13 +18601,13 @@
         <v>19</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>19</v>
@@ -18620,7 +18625,7 @@
         <v>19</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>76</v>
@@ -18641,15 +18646,15 @@
         <v>19</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18672,17 +18677,17 @@
         <v>19</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>19</v>
@@ -18731,7 +18736,7 @@
         <v>19</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>76</v>
@@ -18752,15 +18757,15 @@
         <v>19</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18783,17 +18788,17 @@
         <v>19</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>19</v>
@@ -18842,7 +18847,7 @@
         <v>19</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>76</v>
@@ -18868,10 +18873,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18894,19 +18899,19 @@
         <v>19</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>19</v>
@@ -18955,7 +18960,7 @@
         <v>19</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>76</v>
@@ -18981,10 +18986,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19007,17 +19012,17 @@
         <v>19</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>19</v>
@@ -19066,7 +19071,7 @@
         <v>19</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>76</v>
@@ -19092,10 +19097,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19118,19 +19123,19 @@
         <v>19</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>19</v>
@@ -19179,7 +19184,7 @@
         <v>19</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>76</v>
@@ -19200,15 +19205,15 @@
         <v>19</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19231,17 +19236,17 @@
         <v>19</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>19</v>
@@ -19290,7 +19295,7 @@
         <v>19</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>76</v>
@@ -19316,10 +19321,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19345,10 +19350,10 @@
         <v>78</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -19399,7 +19404,7 @@
         <v>19</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>76</v>
@@ -19425,10 +19430,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19454,10 +19459,10 @@
         <v>78</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19508,7 +19513,7 @@
         <v>19</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>76</v>
@@ -19534,10 +19539,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19560,13 +19565,13 @@
         <v>19</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -19617,7 +19622,7 @@
         <v>19</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>76</v>
@@ -19643,10 +19648,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19669,13 +19674,13 @@
         <v>19</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19726,7 +19731,7 @@
         <v>19</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>76</v>
@@ -19735,7 +19740,7 @@
         <v>86</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>19</v>
@@ -19747,19 +19752,19 @@
         <v>19</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -19781,13 +19786,13 @@
         <v>133</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -19837,7 +19842,7 @@
         <v>19</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>76</v>
@@ -19858,19 +19863,19 @@
         <v>19</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -19892,16 +19897,16 @@
         <v>133</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>19</v>
@@ -19950,7 +19955,7 @@
         <v>19</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>76</v>
@@ -19976,10 +19981,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20002,17 +20007,17 @@
         <v>19</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>19</v>
@@ -20061,7 +20066,7 @@
         <v>19</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>76</v>
@@ -20087,10 +20092,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20113,17 +20118,17 @@
         <v>19</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>19</v>
@@ -20148,13 +20153,13 @@
         <v>19</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>19</v>
@@ -20172,7 +20177,7 @@
         <v>19</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>76</v>
@@ -20198,10 +20203,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20224,19 +20229,19 @@
         <v>19</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>19</v>
@@ -20261,13 +20266,13 @@
         <v>19</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>19</v>
@@ -20285,7 +20290,7 @@
         <v>19</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>76</v>
@@ -20311,14 +20316,14 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -20337,13 +20342,13 @@
         <v>19</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -20370,11 +20375,11 @@
         <v>19</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>19</v>
@@ -20392,7 +20397,7 @@
         <v>19</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>76</v>
@@ -20418,10 +20423,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20444,19 +20449,19 @@
         <v>19</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>19</v>
@@ -20481,13 +20486,13 @@
         <v>19</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>19</v>
@@ -20505,7 +20510,7 @@
         <v>19</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>76</v>
@@ -20526,15 +20531,15 @@
         <v>19</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20557,17 +20562,17 @@
         <v>19</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>19</v>
@@ -20616,7 +20621,7 @@
         <v>19</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>76</v>
@@ -20637,15 +20642,15 @@
         <v>19</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20668,17 +20673,17 @@
         <v>19</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>19</v>
@@ -20727,7 +20732,7 @@
         <v>19</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>76</v>
@@ -20753,10 +20758,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20779,19 +20784,19 @@
         <v>19</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>19</v>
@@ -20840,7 +20845,7 @@
         <v>19</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>76</v>
@@ -20866,10 +20871,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20892,17 +20897,17 @@
         <v>19</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>19</v>
@@ -20951,7 +20956,7 @@
         <v>19</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>76</v>
@@ -20977,10 +20982,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21003,19 +21008,19 @@
         <v>19</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>19</v>
@@ -21064,7 +21069,7 @@
         <v>19</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>76</v>
@@ -21085,15 +21090,15 @@
         <v>19</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21116,17 +21121,17 @@
         <v>19</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>19</v>
@@ -21175,7 +21180,7 @@
         <v>19</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>76</v>
@@ -21201,10 +21206,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21230,10 +21235,10 @@
         <v>78</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -21284,7 +21289,7 @@
         <v>19</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>76</v>
@@ -21310,10 +21315,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21339,10 +21344,10 @@
         <v>78</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
@@ -21393,7 +21398,7 @@
         <v>19</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>76</v>
@@ -21419,10 +21424,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21448,14 +21453,14 @@
         <v>78</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>19</v>
@@ -21504,7 +21509,7 @@
         <v>19</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>76</v>
@@ -21530,10 +21535,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21556,19 +21561,19 @@
         <v>87</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>19</v>
@@ -21617,7 +21622,7 @@
         <v>19</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>76</v>
@@ -21643,10 +21648,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21669,13 +21674,13 @@
         <v>19</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -21726,7 +21731,7 @@
         <v>19</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>76</v>
@@ -21735,7 +21740,7 @@
         <v>86</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>19</v>
@@ -21747,19 +21752,19 @@
         <v>19</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -21781,13 +21786,13 @@
         <v>133</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -21837,7 +21842,7 @@
         <v>19</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>76</v>
@@ -21858,19 +21863,19 @@
         <v>19</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
@@ -21892,16 +21897,16 @@
         <v>133</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>19</v>
@@ -21950,7 +21955,7 @@
         <v>19</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>76</v>
@@ -21976,10 +21981,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22002,19 +22007,19 @@
         <v>87</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>19</v>
@@ -22039,13 +22044,13 @@
         <v>19</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>19</v>
@@ -22063,7 +22068,7 @@
         <v>19</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>86</v>
@@ -22089,10 +22094,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22115,17 +22120,17 @@
         <v>87</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>19</v>
@@ -22174,7 +22179,7 @@
         <v>19</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>86</v>
@@ -22200,10 +22205,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22226,17 +22231,17 @@
         <v>19</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>19</v>
@@ -22285,7 +22290,7 @@
         <v>19</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>76</v>
@@ -22311,10 +22316,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22337,13 +22342,13 @@
         <v>19</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -22394,7 +22399,7 @@
         <v>19</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>76</v>
@@ -22403,7 +22408,7 @@
         <v>86</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>19</v>
@@ -22415,19 +22420,19 @@
         <v>19</v>
       </c>
       <c r="AM175" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
@@ -22449,13 +22454,13 @@
         <v>133</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -22505,7 +22510,7 @@
         <v>19</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>76</v>
@@ -22526,19 +22531,19 @@
         <v>19</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -22560,16 +22565,16 @@
         <v>133</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>19</v>
@@ -22618,7 +22623,7 @@
         <v>19</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>76</v>
@@ -22644,10 +22649,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22670,17 +22675,17 @@
         <v>19</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>19</v>
@@ -22705,13 +22710,13 @@
         <v>19</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>19</v>
@@ -22729,7 +22734,7 @@
         <v>19</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>86</v>
@@ -22755,10 +22760,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22781,19 +22786,19 @@
         <v>19</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>19</v>
@@ -22842,7 +22847,7 @@
         <v>19</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>76</v>
@@ -22868,10 +22873,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22894,17 +22899,17 @@
         <v>19</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>19</v>
@@ -22929,13 +22934,13 @@
         <v>19</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>19</v>
@@ -22953,7 +22958,7 @@
         <v>19</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>76</v>
@@ -22979,10 +22984,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23005,17 +23010,17 @@
         <v>19</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>19</v>
@@ -23064,7 +23069,7 @@
         <v>19</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>76</v>
@@ -23090,10 +23095,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23116,17 +23121,17 @@
         <v>19</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>19</v>
@@ -23175,7 +23180,7 @@
         <v>19</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>86</v>
@@ -23201,10 +23206,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23227,19 +23232,19 @@
         <v>19</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>19</v>
@@ -23288,7 +23293,7 @@
         <v>19</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>76</v>
@@ -23314,10 +23319,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -23340,19 +23345,19 @@
         <v>19</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>19</v>
@@ -23377,13 +23382,13 @@
         <v>19</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>19</v>
@@ -23401,7 +23406,7 @@
         <v>19</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>76</v>
@@ -23427,10 +23432,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -23453,19 +23458,19 @@
         <v>19</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>19</v>
@@ -23490,13 +23495,13 @@
         <v>19</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>19</v>
@@ -23514,7 +23519,7 @@
         <v>19</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>76</v>
@@ -23540,10 +23545,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -23566,19 +23571,19 @@
         <v>19</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>19</v>
@@ -23627,7 +23632,7 @@
         <v>19</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>76</v>
@@ -23653,10 +23658,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23679,17 +23684,17 @@
         <v>19</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>19</v>
@@ -23738,7 +23743,7 @@
         <v>19</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>76</v>
@@ -23764,10 +23769,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -23790,13 +23795,13 @@
         <v>19</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
@@ -23847,7 +23852,7 @@
         <v>19</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>76</v>
@@ -23856,7 +23861,7 @@
         <v>86</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>19</v>
@@ -23868,19 +23873,19 @@
         <v>19</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -23902,13 +23907,13 @@
         <v>133</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
@@ -23958,7 +23963,7 @@
         <v>19</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>76</v>
@@ -23979,19 +23984,19 @@
         <v>19</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -24013,16 +24018,16 @@
         <v>133</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>19</v>
@@ -24071,7 +24076,7 @@
         <v>19</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>76</v>
@@ -24097,10 +24102,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24123,17 +24128,17 @@
         <v>19</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>19</v>
@@ -24182,7 +24187,7 @@
         <v>19</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>76</v>
@@ -24208,10 +24213,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -24234,17 +24239,17 @@
         <v>19</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>19</v>
@@ -24269,13 +24274,13 @@
         <v>19</v>
       </c>
       <c r="X192" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>19</v>
@@ -24293,7 +24298,7 @@
         <v>19</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>76</v>
@@ -24319,10 +24324,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -24345,17 +24350,17 @@
         <v>19</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>19</v>
@@ -24404,7 +24409,7 @@
         <v>19</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>86</v>
@@ -24430,10 +24435,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -24456,19 +24461,19 @@
         <v>19</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>19</v>
@@ -24517,7 +24522,7 @@
         <v>19</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>76</v>
@@ -24543,10 +24548,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -24569,19 +24574,19 @@
         <v>19</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>19</v>
@@ -24630,7 +24635,7 @@
         <v>19</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>76</v>
@@ -24656,10 +24661,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -24682,19 +24687,19 @@
         <v>19</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>19</v>
@@ -24743,7 +24748,7 @@
         <v>19</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>76</v>
@@ -24764,15 +24769,15 @@
         <v>19</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -24795,13 +24800,13 @@
         <v>19</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -24852,7 +24857,7 @@
         <v>19</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>76</v>
@@ -24861,7 +24866,7 @@
         <v>86</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>19</v>
@@ -24873,19 +24878,19 @@
         <v>19</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -24907,13 +24912,13 @@
         <v>133</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
@@ -24963,7 +24968,7 @@
         <v>19</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>76</v>
@@ -24984,19 +24989,19 @@
         <v>19</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
@@ -25018,16 +25023,16 @@
         <v>133</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>19</v>
@@ -25076,7 +25081,7 @@
         <v>19</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>76</v>
@@ -25102,10 +25107,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -25128,17 +25133,17 @@
         <v>19</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>19</v>
@@ -25187,7 +25192,7 @@
         <v>19</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>86</v>
@@ -25213,10 +25218,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -25239,19 +25244,19 @@
         <v>19</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O201" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>19</v>
@@ -25300,7 +25305,7 @@
         <v>19</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>86</v>
@@ -25326,10 +25331,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -25352,17 +25357,17 @@
         <v>19</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>19</v>
@@ -25411,7 +25416,7 @@
         <v>19</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>86</v>
@@ -25437,10 +25442,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -25463,17 +25468,17 @@
         <v>19</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>19</v>
@@ -25522,7 +25527,7 @@
         <v>19</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>76</v>
@@ -25548,10 +25553,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -25574,19 +25579,19 @@
         <v>19</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>19</v>
@@ -25635,7 +25640,7 @@
         <v>19</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>76</v>
@@ -25661,10 +25666,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -25687,19 +25692,19 @@
         <v>19</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O205" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>19</v>
@@ -25748,7 +25753,7 @@
         <v>19</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>76</v>
@@ -25774,10 +25779,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -25800,13 +25805,13 @@
         <v>19</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
@@ -25857,7 +25862,7 @@
         <v>19</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>76</v>
@@ -25866,7 +25871,7 @@
         <v>86</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>19</v>
@@ -25878,19 +25883,19 @@
         <v>19</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
@@ -25912,13 +25917,13 @@
         <v>133</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
@@ -25968,7 +25973,7 @@
         <v>19</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>76</v>
@@ -25989,19 +25994,19 @@
         <v>19</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
@@ -26023,16 +26028,16 @@
         <v>133</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>19</v>
@@ -26081,7 +26086,7 @@
         <v>19</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>76</v>
@@ -26107,10 +26112,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -26133,17 +26138,17 @@
         <v>19</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>19</v>
@@ -26192,7 +26197,7 @@
         <v>19</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>76</v>
@@ -26218,10 +26223,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -26244,17 +26249,17 @@
         <v>19</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>19</v>
@@ -26303,7 +26308,7 @@
         <v>19</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>76</v>
@@ -26329,10 +26334,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -26355,17 +26360,17 @@
         <v>19</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N211" s="2"/>
       <c r="O211" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>19</v>
@@ -26414,7 +26419,7 @@
         <v>19</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>76</v>
@@ -26440,10 +26445,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -26466,17 +26471,17 @@
         <v>87</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>19</v>
@@ -26501,13 +26506,13 @@
         <v>19</v>
       </c>
       <c r="X212" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y212" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AA212" t="s" s="2">
         <v>19</v>
@@ -26525,7 +26530,7 @@
         <v>19</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>86</v>
@@ -26551,10 +26556,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -26577,19 +26582,19 @@
         <v>87</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O213" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>19</v>
@@ -26638,7 +26643,7 @@
         <v>19</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>76</v>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T12:39:21+00:00</t>
+    <t>2024-09-17T13:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:24:04+00:00</t>
+    <t>2024-09-17T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T13:52:39+00:00</t>
+    <t>2024-09-17T14:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:02:22+00:00</t>
+    <t>2024-09-17T14:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:11:23+00:00</t>
+    <t>2024-09-17T14:20:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:20:09+00:00</t>
+    <t>2024-09-17T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:52:20+00:00</t>
+    <t>2024-09-17T17:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T17:35:28+00:00</t>
+    <t>2024-09-17T18:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:06:53+00:00</t>
+    <t>2024-09-17T18:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:22:57+00:00</t>
+    <t>2024-09-17T20:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2525,7 +2525,7 @@
     <t>ClaimResponse.insurance.coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/SVCCoverage)
 </t>
   </si>
   <si>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:06:55+00:00</t>
+    <t>2024-09-17T20:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T20:22:56+00:00</t>
+    <t>2024-09-18T05:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T05:27:51+00:00</t>
+    <t>2024-09-19T11:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T11:50:53+00:00</t>
+    <t>2024-09-19T12:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:04:20+00:00</t>
+    <t>2024-09-22T15:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T15:40:07+00:00</t>
+    <t>2024-09-23T07:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T07:19:12+00:00</t>
+    <t>2024-09-23T11:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:09:48+00:00</t>
+    <t>2024-09-23T11:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:29:53+00:00</t>
+    <t>2024-09-23T11:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T11:42:54+00:00</t>
+    <t>2024-09-23T12:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:18:50+00:00</t>
+    <t>2024-09-23T18:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T18:28:00+00:00</t>
+    <t>2024-09-23T19:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:43:17+00:00</t>
+    <t>2024-09-23T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T19:56:54+00:00</t>
+    <t>2024-09-24T07:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T07:39:02+00:00</t>
+    <t>2024-09-25T11:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:00:26+00:00</t>
+    <t>2024-09-25T11:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:40:05+00:00</t>
+    <t>2024-09-25T11:54:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T11:54:18+00:00</t>
+    <t>2024-09-25T12:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T12:57:21+00:00</t>
+    <t>2024-09-25T14:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:29:33+00:00</t>
+    <t>2024-09-25T14:44:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T14:44:31+00:00</t>
+    <t>2024-09-26T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:10:34+00:00</t>
+    <t>2024-09-26T07:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:17:19+00:00</t>
+    <t>2024-09-26T07:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:48:16+00:00</t>
+    <t>2024-09-26T07:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T07:51:13+00:00</t>
+    <t>2024-09-26T08:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:50:40+00:00</t>
+    <t>2024-09-26T08:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:56:22+00:00</t>
+    <t>2024-09-26T09:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:55:47+00:00</t>
+    <t>2024-09-26T09:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T09:59:14+00:00</t>
+    <t>2024-09-26T10:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T10:56:09+00:00</t>
+    <t>2024-09-26T13:32:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:32:53+00:00</t>
+    <t>2024-09-26T13:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T13:57:34+00:00</t>
+    <t>2024-09-27T07:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T07:18:42+00:00</t>
+    <t>2024-09-30T06:58:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T06:58:27+00:00</t>
+    <t>2024-09-30T08:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:02:36+00:00</t>
+    <t>2024-09-30T08:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:10:10+00:00</t>
+    <t>2024-09-30T08:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:14:13+00:00</t>
+    <t>2024-09-30T08:48:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T08:48:22+00:00</t>
+    <t>2024-09-30T09:04:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T09:04:34+00:00</t>
+    <t>2024-09-30T10:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T10:20:26+00:00</t>
+    <t>2024-09-30T12:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T12:24:06+00:00</t>
+    <t>2024-09-30T18:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T18:33:40+00:00</t>
+    <t>2024-10-01T09:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T09:38:16+00:00</t>
+    <t>2024-10-01T12:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T12:31:57+00:00</t>
+    <t>2024-10-07T08:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T08:22:28+00:00</t>
+    <t>2024-10-11T08:15:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T08:15:28+00:00</t>
+    <t>2024-10-11T09:22:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T09:22:23+00:00</t>
+    <t>2024-10-23T07:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T07:34:13+00:00</t>
+    <t>2024-10-23T11:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T12:38:05+00:00</t>
+    <t>2024-10-24T13:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:32:35+00:00</t>
+    <t>2024-10-24T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T13:59:53+00:00</t>
+    <t>2024-10-24T14:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:45:49+00:00</t>
+    <t>2024-10-24T18:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDClaimResponse.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:34:10+00:00</t>
+    <t>2024-10-24T19:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
